--- a/keyboardLayoutEditor/switchFootprints.xlsx
+++ b/keyboardLayoutEditor/switchFootprints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\a2000Serotina\a2000Serotina\keyboardLayoutEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0935B5-FFC3-4109-9391-1247FA30D819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210693B6-10D2-4030-ACE6-E0F6DD69957B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39000" yWindow="2535" windowWidth="31455" windowHeight="17445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="2175" windowWidth="31455" windowHeight="17445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -999,10 +999,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1062,7 +1063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1164,7 +1165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1181,7 +1182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1215,7 +1216,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1283,7 +1284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1317,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1351,7 +1352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1368,7 +1369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1385,7 +1386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1606,7 +1607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -1657,7 +1658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -1674,7 +1675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -1691,7 +1692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -1725,7 +1726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -1742,7 +1743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -1776,7 +1777,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -1793,7 +1794,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -1810,7 +1811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -1827,7 +1828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>104</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -1861,7 +1862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -1963,7 +1964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -1980,7 +1981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -2014,7 +2015,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -2065,7 +2066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -2082,7 +2083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>130</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>134</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>136</v>
       </c>
@@ -2133,7 +2134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>138</v>
       </c>
@@ -2150,7 +2151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>140</v>
       </c>
@@ -2167,7 +2168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>142</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>144</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>146</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>148</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>149</v>
       </c>
@@ -2252,7 +2253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>151</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>153</v>
       </c>
@@ -2286,7 +2287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>155</v>
       </c>
@@ -2303,7 +2304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>157</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>159</v>
       </c>
@@ -2337,7 +2338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>163</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>167</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>169</v>
       </c>
@@ -2422,7 +2423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>170</v>
       </c>
@@ -2439,7 +2440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>172</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>174</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>176</v>
       </c>
@@ -2490,7 +2491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>178</v>
       </c>
@@ -2507,7 +2508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>180</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>182</v>
       </c>
@@ -2541,7 +2542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>184</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>186</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>187</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>189</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>191</v>
       </c>
@@ -2626,7 +2627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>193</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>195</v>
       </c>
@@ -2660,7 +2661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>197</v>
       </c>
@@ -2677,7 +2678,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>199</v>
       </c>
@@ -2694,7 +2695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>201</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>203</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>204</v>
       </c>
@@ -2745,7 +2746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>206</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>208</v>
       </c>
@@ -2779,7 +2780,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>210</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -2814,7 +2815,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E106" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E106" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
